--- a/report.xlsx
+++ b/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CDFEC5-C543-4AF0-BC3B-16AEAB11C120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539CAB75-D52D-41EB-9357-90B57FB01A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31575" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="6" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">ЗИП!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Отчет!$A$1:$P$161</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t xml:space="preserve">Акт (расширенный отчет) о проведении диагностики клапана  </t>
   </si>
@@ -538,6 +527,24 @@
   <si>
     <t>Усилие отрыва прямой/обратный ход (N)</t>
   </si>
+  <si>
+    <t>Результат циклического теста</t>
+  </si>
+  <si>
+    <t>Время прямого хода, сек</t>
+  </si>
+  <si>
+    <t>Время обратного хода, сек</t>
+  </si>
+  <si>
+    <t>Количество выполненных циклов</t>
+  </si>
+  <si>
+    <t>Диапозон выполнения теста, %</t>
+  </si>
+  <si>
+    <t>Общее время теста, сек</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +762,25 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1214,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1228,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1295,6 +1318,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1322,9 +1351,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,6 +1450,249 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1433,15 +1702,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,54 +1709,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,198 +1720,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2007,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99BE51F-D7DB-4CFD-9A10-5B56BAE54DA0}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,783 +2067,806 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="122" t="str">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="109" t="str">
         <f>REPT(M5,1)</f>
         <v/>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="116" t="s">
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="122" t="str">
+      <c r="M1" s="101"/>
+      <c r="N1" s="109" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="J4" s="118" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="J4" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="6"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="121"/>
-      <c r="J5" s="39" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
+      <c r="J5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="103"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="108"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121"/>
-      <c r="J6" s="39" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
+      <c r="J6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="101" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="103"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="121"/>
-      <c r="J7" s="39" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
+      <c r="J7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="101" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="103"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="108"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="J8" s="119" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="J8" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="39" t="s">
+      <c r="B9" s="163" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="J9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="103"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="108"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="J10" s="39" t="s">
+      <c r="B10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="J10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="101" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="J11" s="98" t="s">
+      <c r="B11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="J11" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="109" t="s">
+      <c r="K11" s="161"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="111"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="J12" s="79" t="s">
+      <c r="B12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="J12" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="156"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="J13" s="98" t="s">
+      <c r="B13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="J13" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="73" t="s">
+      <c r="K13" s="161"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="156"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="J14" s="38" t="s">
+      <c r="B14" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="J14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="J15" s="82" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="J15" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97" t="s">
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97" t="s">
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="84" t="s">
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="89"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="115" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="106" t="s">
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="109" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="110"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="91" t="s">
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="106" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="108"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="108"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="106" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
     </row>
     <row r="35" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
     </row>
     <row r="36" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="106" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
     </row>
     <row r="37" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="142"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="111"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83"/>
     </row>
     <row r="41" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="144"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="114"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="86"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="35" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="35" t="s">
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2811,15 +2875,15 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2828,19 +2892,19 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="134" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="124"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2849,15 +2913,15 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="139"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="127"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2866,19 +2930,19 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="35" t="s">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
       <c r="K48" s="56"/>
       <c r="L48" s="57"/>
       <c r="M48" s="57"/>
@@ -2887,15 +2951,15 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
       <c r="K49" s="56"/>
       <c r="L49" s="57"/>
       <c r="M49" s="57"/>
@@ -2904,19 +2968,19 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="154" t="s">
+      <c r="B50" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="156" t="s">
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="158"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="149"/>
       <c r="K50" s="58"/>
       <c r="L50" s="59"/>
       <c r="M50" s="59"/>
@@ -2925,15 +2989,15 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="155"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="149"/>
       <c r="K51" s="58"/>
       <c r="L51" s="59"/>
       <c r="M51" s="59"/>
@@ -2942,11 +3006,11 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="126" t="s">
+      <c r="B52" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="40"/>
       <c r="F52" s="41"/>
       <c r="G52" s="42"/>
@@ -2961,9 +3025,9 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
       <c r="E53" s="43"/>
       <c r="F53" s="44"/>
       <c r="G53" s="45"/>
@@ -2989,15 +3053,15 @@
       <c r="G55" s="61"/>
       <c r="H55" s="61"/>
       <c r="I55" s="62"/>
-      <c r="J55" s="148" t="s">
+      <c r="J55" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="K55" s="149"/>
-      <c r="L55" s="149"/>
-      <c r="M55" s="149"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="149"/>
-      <c r="P55" s="150"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="140"/>
+      <c r="N55" s="140"/>
+      <c r="O55" s="140"/>
+      <c r="P55" s="141"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B56" s="63" t="s">
@@ -3010,13 +3074,13 @@
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
       <c r="I56" s="65"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="152"/>
-      <c r="L56" s="152"/>
-      <c r="M56" s="152"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="153"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="144"/>
     </row>
     <row r="57" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="66"/>
@@ -3027,13 +3091,13 @@
       <c r="G57" s="67"/>
       <c r="H57" s="67"/>
       <c r="I57" s="68"/>
-      <c r="J57" s="151"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="152"/>
-      <c r="M57" s="152"/>
-      <c r="N57" s="152"/>
-      <c r="O57" s="152"/>
-      <c r="P57" s="153"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="144"/>
     </row>
     <row r="58" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="66"/>
@@ -3044,13 +3108,13 @@
       <c r="G58" s="67"/>
       <c r="H58" s="67"/>
       <c r="I58" s="68"/>
-      <c r="J58" s="151"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="153"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="143"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="143"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="143"/>
+      <c r="P58" s="144"/>
     </row>
     <row r="59" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="66"/>
@@ -3061,13 +3125,13 @@
       <c r="G59" s="67"/>
       <c r="H59" s="67"/>
       <c r="I59" s="68"/>
-      <c r="J59" s="151"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="152"/>
-      <c r="M59" s="152"/>
-      <c r="N59" s="152"/>
-      <c r="O59" s="152"/>
-      <c r="P59" s="153"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
+      <c r="P59" s="144"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="66"/>
@@ -3078,13 +3142,13 @@
       <c r="G60" s="67"/>
       <c r="H60" s="67"/>
       <c r="I60" s="68"/>
-      <c r="J60" s="151"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="153"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
+      <c r="P60" s="144"/>
     </row>
     <row r="61" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="66"/>
@@ -3095,13 +3159,13 @@
       <c r="G61" s="67"/>
       <c r="H61" s="67"/>
       <c r="I61" s="68"/>
-      <c r="J61" s="151"/>
-      <c r="K61" s="152"/>
-      <c r="L61" s="152"/>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
-      <c r="O61" s="152"/>
-      <c r="P61" s="153"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="143"/>
+      <c r="L61" s="143"/>
+      <c r="M61" s="143"/>
+      <c r="N61" s="143"/>
+      <c r="O61" s="143"/>
+      <c r="P61" s="144"/>
     </row>
     <row r="62" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="66"/>
@@ -3112,13 +3176,13 @@
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
       <c r="I62" s="68"/>
-      <c r="J62" s="151"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="153"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="143"/>
+      <c r="L62" s="143"/>
+      <c r="M62" s="143"/>
+      <c r="N62" s="143"/>
+      <c r="O62" s="143"/>
+      <c r="P62" s="144"/>
     </row>
     <row r="63" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="66"/>
@@ -3129,13 +3193,13 @@
       <c r="G63" s="67"/>
       <c r="H63" s="67"/>
       <c r="I63" s="68"/>
-      <c r="J63" s="151"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="152"/>
-      <c r="P63" s="153"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="143"/>
+      <c r="M63" s="143"/>
+      <c r="N63" s="143"/>
+      <c r="O63" s="143"/>
+      <c r="P63" s="144"/>
     </row>
     <row r="64" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="66"/>
@@ -3146,13 +3210,13 @@
       <c r="G64" s="67"/>
       <c r="H64" s="67"/>
       <c r="I64" s="68"/>
-      <c r="J64" s="151"/>
-      <c r="K64" s="152"/>
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="153"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="143"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143"/>
+      <c r="O64" s="143"/>
+      <c r="P64" s="144"/>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="69"/>
@@ -3163,158 +3227,158 @@
       <c r="G65" s="70"/>
       <c r="H65" s="70"/>
       <c r="I65" s="71"/>
-      <c r="J65" s="160"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="161"/>
-      <c r="M65" s="161"/>
-      <c r="N65" s="161"/>
-      <c r="O65" s="161"/>
-      <c r="P65" s="162"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="152"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="153"/>
     </row>
     <row r="66" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K66" s="25" t="s">
+      <c r="K66" s="24" t="s">
         <v>15</v>
       </c>
       <c r="L66" s="46"/>
       <c r="M66" s="46"/>
       <c r="N66" s="46"/>
       <c r="O66" s="46"/>
-      <c r="P66" s="8"/>
+      <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="163"/>
-      <c r="I67" s="163"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="8"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="7"/>
     </row>
     <row r="68" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="163"/>
-      <c r="F68" s="163"/>
-      <c r="G68" s="163"/>
-      <c r="H68" s="163"/>
-      <c r="I68" s="163"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="8"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="7"/>
     </row>
     <row r="69" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="163"/>
-      <c r="I69" s="163"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="8"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="7"/>
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="97" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="97"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="163"/>
-      <c r="I70" s="163"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="170"/>
+      <c r="F70" s="170"/>
+      <c r="G70" s="170"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="170"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="97" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="163"/>
-      <c r="I71" s="163"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="170"/>
+      <c r="F71" s="170"/>
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="170"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="97" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="163"/>
-      <c r="G72" s="163"/>
-      <c r="H72" s="163"/>
-      <c r="I72" s="163"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="170"/>
+      <c r="F72" s="170"/>
+      <c r="G72" s="170"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="170"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
     </row>
     <row r="73" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="47" t="s">
         <v>93</v>
       </c>
@@ -3334,7 +3398,7 @@
       <c r="P74" s="53"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="47" t="s">
         <v>92</v>
       </c>
@@ -3354,16 +3418,16 @@
       <c r="P75" s="52"/>
     </row>
     <row r="76" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="123"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="125"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="113"/>
       <c r="K76" s="54"/>
       <c r="L76" s="55"/>
       <c r="M76" s="55"/>
@@ -3372,25 +3436,25 @@
       <c r="P76" s="52"/>
     </row>
     <row r="77" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
     </row>
     <row r="78" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="72" t="s">
         <v>115</v>
       </c>
@@ -3399,560 +3463,560 @@
       <c r="E78" s="72"/>
       <c r="F78" s="72"/>
       <c r="G78" s="72"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
     </row>
     <row r="79" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
     </row>
     <row r="80" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
     </row>
     <row r="81" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="129" t="s">
+      <c r="B82" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="129"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="129"/>
-      <c r="J82" s="129"/>
-      <c r="K82" s="129"/>
-      <c r="L82" s="129"/>
-      <c r="M82" s="140" t="str">
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="117"/>
+      <c r="I82" s="117"/>
+      <c r="J82" s="117"/>
+      <c r="K82" s="117"/>
+      <c r="L82" s="117"/>
+      <c r="M82" s="128" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
+      <c r="N82" s="128"/>
+      <c r="O82" s="128"/>
+      <c r="P82" s="128"/>
     </row>
     <row r="83" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="129"/>
-      <c r="I83" s="129"/>
-      <c r="J83" s="129"/>
-      <c r="K83" s="129"/>
-      <c r="L83" s="129"/>
-      <c r="M83" s="140"/>
-      <c r="N83" s="140"/>
-      <c r="O83" s="140"/>
-      <c r="P83" s="140"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="117"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="117"/>
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
+      <c r="M83" s="128"/>
+      <c r="N83" s="128"/>
+      <c r="O83" s="128"/>
+      <c r="P83" s="128"/>
     </row>
     <row r="84" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="129"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="129"/>
-      <c r="K84" s="129"/>
-      <c r="L84" s="129"/>
-      <c r="M84" s="140"/>
-      <c r="N84" s="140"/>
-      <c r="O84" s="140"/>
-      <c r="P84" s="140"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="117"/>
+      <c r="I84" s="117"/>
+      <c r="J84" s="117"/>
+      <c r="K84" s="117"/>
+      <c r="L84" s="117"/>
+      <c r="M84" s="128"/>
+      <c r="N84" s="128"/>
+      <c r="O84" s="128"/>
+      <c r="P84" s="128"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="129"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
-      <c r="F85" s="129"/>
-      <c r="G85" s="129"/>
-      <c r="H85" s="129"/>
-      <c r="I85" s="129"/>
-      <c r="J85" s="129"/>
-      <c r="K85" s="129"/>
-      <c r="L85" s="129"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="140"/>
-      <c r="O85" s="140"/>
-      <c r="P85" s="140"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="117"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="117"/>
+      <c r="M85" s="128"/>
+      <c r="N85" s="128"/>
+      <c r="O85" s="128"/>
+      <c r="P85" s="128"/>
     </row>
     <row r="86" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="159" t="s">
+      <c r="B86" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="159"/>
-      <c r="D86" s="159"/>
-      <c r="E86" s="159"/>
-      <c r="F86" s="159"/>
-      <c r="G86" s="159"/>
-      <c r="H86" s="159"/>
-      <c r="I86" s="159"/>
-      <c r="J86" s="159"/>
-      <c r="K86" s="159"/>
+      <c r="C86" s="150"/>
+      <c r="D86" s="150"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="150"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="150"/>
+      <c r="I86" s="150"/>
+      <c r="J86" s="150"/>
+      <c r="K86" s="150"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="31"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="31"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="31"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="31"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="31"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="31"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="31"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="32"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="32"/>
-      <c r="O97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="31"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="31"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="31"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="31"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="31"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
       <c r="P102"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="31"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
       <c r="P103"/>
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="31"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
-      <c r="O105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="31"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="33"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="33"/>
+      <c r="O106" s="33"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="31"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="33"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="31"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="31"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="32"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="33"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
@@ -3975,17 +4039,17 @@
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -3995,416 +4059,416 @@
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="31"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="33"/>
+      <c r="O112" s="33"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="31"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="33"/>
+      <c r="O113" s="33"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="31"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="32"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="31"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="32"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="33"/>
+      <c r="O115" s="33"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="31"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="32"/>
-      <c r="M116" s="32"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="32"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="31"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="32"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="32"/>
-      <c r="O117" s="32"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="33"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="31"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="32"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="31"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="32"/>
-      <c r="O119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="31"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="32"/>
-      <c r="M120" s="32"/>
-      <c r="N120" s="32"/>
-      <c r="O120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="33"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="33"/>
+      <c r="O120" s="33"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="31"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="31"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
-      <c r="L122" s="32"/>
-      <c r="M122" s="32"/>
-      <c r="N122" s="32"/>
-      <c r="O122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="33"/>
+      <c r="O122" s="33"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="31"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32"/>
-      <c r="K123" s="32"/>
-      <c r="L123" s="32"/>
-      <c r="M123" s="32"/>
-      <c r="N123" s="32"/>
-      <c r="O123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="31"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="32"/>
-      <c r="K124" s="32"/>
-      <c r="L124" s="32"/>
-      <c r="M124" s="32"/>
-      <c r="N124" s="32"/>
-      <c r="O124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="31"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="32"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="32"/>
-      <c r="O125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="31"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="32"/>
-      <c r="M126" s="32"/>
-      <c r="N126" s="32"/>
-      <c r="O126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="33"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="33"/>
+      <c r="O126" s="33"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="31"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="32"/>
-      <c r="M127" s="32"/>
-      <c r="N127" s="32"/>
-      <c r="O127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
       <c r="P127"/>
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="31"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32"/>
-      <c r="O128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="33"/>
       <c r="P128"/>
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="31"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="32"/>
-      <c r="M129" s="32"/>
-      <c r="N129" s="32"/>
-      <c r="O129" s="32"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="31"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="32"/>
-      <c r="J130" s="32"/>
-      <c r="K130" s="32"/>
-      <c r="L130" s="32"/>
-      <c r="M130" s="32"/>
-      <c r="N130" s="32"/>
-      <c r="O130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="33"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33"/>
+      <c r="O130" s="33"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="31"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="32"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="32"/>
-      <c r="M131" s="32"/>
-      <c r="N131" s="32"/>
-      <c r="O131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="33"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="33"/>
+      <c r="O131" s="33"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="31"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="32"/>
-      <c r="M132" s="32"/>
-      <c r="N132" s="32"/>
-      <c r="O132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="31"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32"/>
-      <c r="K133" s="32"/>
-      <c r="L133" s="32"/>
-      <c r="M133" s="32"/>
-      <c r="N133" s="32"/>
-      <c r="O133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="31"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
-      <c r="L134" s="32"/>
-      <c r="M134" s="32"/>
-      <c r="N134" s="32"/>
-      <c r="O134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="33"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="33"/>
+      <c r="L134" s="33"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="33"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
@@ -4427,17 +4491,17 @@
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
@@ -4447,428 +4511,428 @@
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="31"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
-      <c r="N137" s="32"/>
-      <c r="O137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="33"/>
+      <c r="O137" s="33"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="31"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="32"/>
-      <c r="M138" s="32"/>
-      <c r="N138" s="32"/>
-      <c r="O138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="33"/>
+      <c r="L138" s="33"/>
+      <c r="M138" s="33"/>
+      <c r="N138" s="33"/>
+      <c r="O138" s="33"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="31"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="32"/>
-      <c r="M139" s="32"/>
-      <c r="N139" s="32"/>
-      <c r="O139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="33"/>
+      <c r="L139" s="33"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="33"/>
+      <c r="O139" s="33"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="31"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="32"/>
-      <c r="J140" s="32"/>
-      <c r="K140" s="32"/>
-      <c r="L140" s="32"/>
-      <c r="M140" s="32"/>
-      <c r="N140" s="32"/>
-      <c r="O140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="33"/>
+      <c r="L140" s="33"/>
+      <c r="M140" s="33"/>
+      <c r="N140" s="33"/>
+      <c r="O140" s="33"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="31"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="32"/>
-      <c r="L141" s="32"/>
-      <c r="M141" s="32"/>
-      <c r="N141" s="32"/>
-      <c r="O141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="31"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="32"/>
-      <c r="M142" s="32"/>
-      <c r="N142" s="32"/>
-      <c r="O142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="33"/>
+      <c r="L142" s="33"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="33"/>
+      <c r="O142" s="33"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="31"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="32"/>
-      <c r="J143" s="32"/>
-      <c r="K143" s="32"/>
-      <c r="L143" s="32"/>
-      <c r="M143" s="32"/>
-      <c r="N143" s="32"/>
-      <c r="O143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="33"/>
+      <c r="L143" s="33"/>
+      <c r="M143" s="33"/>
+      <c r="N143" s="33"/>
+      <c r="O143" s="33"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="31"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="32"/>
-      <c r="J144" s="32"/>
-      <c r="K144" s="32"/>
-      <c r="L144" s="32"/>
-      <c r="M144" s="32"/>
-      <c r="N144" s="32"/>
-      <c r="O144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="33"/>
+      <c r="L144" s="33"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="33"/>
+      <c r="O144" s="33"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="31"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="32"/>
-      <c r="J145" s="32"/>
-      <c r="K145" s="32"/>
-      <c r="L145" s="32"/>
-      <c r="M145" s="32"/>
-      <c r="N145" s="32"/>
-      <c r="O145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="33"/>
+      <c r="L145" s="33"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="33"/>
+      <c r="O145" s="33"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="31"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32"/>
-      <c r="K146" s="32"/>
-      <c r="L146" s="32"/>
-      <c r="M146" s="32"/>
-      <c r="N146" s="32"/>
-      <c r="O146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33"/>
+      <c r="O146" s="33"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="31"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="32"/>
-      <c r="J147" s="32"/>
-      <c r="K147" s="32"/>
-      <c r="L147" s="32"/>
-      <c r="M147" s="32"/>
-      <c r="N147" s="32"/>
-      <c r="O147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="33"/>
+      <c r="L147" s="33"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="33"/>
+      <c r="O147" s="33"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="31"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="32"/>
-      <c r="J148" s="32"/>
-      <c r="K148" s="32"/>
-      <c r="L148" s="32"/>
-      <c r="M148" s="32"/>
-      <c r="N148" s="32"/>
-      <c r="O148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="33"/>
+      <c r="L148" s="33"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="33"/>
+      <c r="O148" s="33"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="31"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="32"/>
-      <c r="J149" s="32"/>
-      <c r="K149" s="32"/>
-      <c r="L149" s="32"/>
-      <c r="M149" s="32"/>
-      <c r="N149" s="32"/>
-      <c r="O149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="33"/>
+      <c r="L149" s="33"/>
+      <c r="M149" s="33"/>
+      <c r="N149" s="33"/>
+      <c r="O149" s="33"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="31"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="32"/>
-      <c r="J150" s="32"/>
-      <c r="K150" s="32"/>
-      <c r="L150" s="32"/>
-      <c r="M150" s="32"/>
-      <c r="N150" s="32"/>
-      <c r="O150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="33"/>
+      <c r="L150" s="33"/>
+      <c r="M150" s="33"/>
+      <c r="N150" s="33"/>
+      <c r="O150" s="33"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="31"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="32"/>
-      <c r="J151" s="32"/>
-      <c r="K151" s="32"/>
-      <c r="L151" s="32"/>
-      <c r="M151" s="32"/>
-      <c r="N151" s="32"/>
-      <c r="O151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="33"/>
+      <c r="L151" s="33"/>
+      <c r="M151" s="33"/>
+      <c r="N151" s="33"/>
+      <c r="O151" s="33"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="31"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="32"/>
-      <c r="K152" s="32"/>
-      <c r="L152" s="32"/>
-      <c r="M152" s="32"/>
-      <c r="N152" s="32"/>
-      <c r="O152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="33"/>
+      <c r="L152" s="33"/>
+      <c r="M152" s="33"/>
+      <c r="N152" s="33"/>
+      <c r="O152" s="33"/>
       <c r="P152"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B153" s="31"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="32"/>
-      <c r="J153" s="32"/>
-      <c r="K153" s="32"/>
-      <c r="L153" s="32"/>
-      <c r="M153" s="32"/>
-      <c r="N153" s="32"/>
-      <c r="O153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="33"/>
+      <c r="L153" s="33"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33"/>
+      <c r="O153" s="33"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B154" s="31"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="32"/>
-      <c r="J154" s="32"/>
-      <c r="K154" s="32"/>
-      <c r="L154" s="32"/>
-      <c r="M154" s="32"/>
-      <c r="N154" s="32"/>
-      <c r="O154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="33"/>
+      <c r="L154" s="33"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
       <c r="P154"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B155" s="31"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="32"/>
-      <c r="I155" s="32"/>
-      <c r="J155" s="32"/>
-      <c r="K155" s="32"/>
-      <c r="L155" s="32"/>
-      <c r="M155" s="32"/>
-      <c r="N155" s="32"/>
-      <c r="O155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="33"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
       <c r="P155"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B156" s="31"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="32"/>
-      <c r="J156" s="32"/>
-      <c r="K156" s="32"/>
-      <c r="L156" s="32"/>
-      <c r="M156" s="32"/>
-      <c r="N156" s="32"/>
-      <c r="O156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="33"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
       <c r="P156"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B157" s="31"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="32"/>
-      <c r="I157" s="32"/>
-      <c r="J157" s="32"/>
-      <c r="K157" s="32"/>
-      <c r="L157" s="32"/>
-      <c r="M157" s="32"/>
-      <c r="N157" s="32"/>
-      <c r="O157" s="32"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
       <c r="P157"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B158" s="31"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
-      <c r="J158" s="32"/>
-      <c r="K158" s="32"/>
-      <c r="L158" s="32"/>
-      <c r="M158" s="32"/>
-      <c r="N158" s="32"/>
-      <c r="O158" s="32"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="33"/>
+      <c r="L158" s="33"/>
+      <c r="M158" s="33"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="33"/>
       <c r="P158"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B159" s="31"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
-      <c r="I159" s="32"/>
-      <c r="J159" s="32"/>
-      <c r="K159" s="32"/>
-      <c r="L159" s="32"/>
-      <c r="M159" s="32"/>
-      <c r="N159" s="32"/>
-      <c r="O159" s="32"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="33"/>
+      <c r="L159" s="33"/>
+      <c r="M159" s="33"/>
+      <c r="N159" s="33"/>
+      <c r="O159" s="33"/>
       <c r="P159"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160"/>
@@ -4881,28 +4945,28 @@
       <c r="Q160"/>
     </row>
     <row r="161" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161"/>
-      <c r="K161" s="9" t="s">
+      <c r="K161" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L161" s="147"/>
-      <c r="M161" s="147"/>
-      <c r="N161" s="147"/>
-      <c r="O161" s="147"/>
+      <c r="L161" s="138"/>
+      <c r="M161" s="138"/>
+      <c r="N161" s="138"/>
+      <c r="O161" s="138"/>
       <c r="P161"/>
-      <c r="Q161" s="7"/>
+      <c r="Q161" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="131">
+  <mergeCells count="142">
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="B67:D67"/>
@@ -4916,6 +4980,17 @@
     <mergeCell ref="B30:D31"/>
     <mergeCell ref="E30:G31"/>
     <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="L161:O161"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J56:P56"/>
@@ -4957,9 +5032,14 @@
     <mergeCell ref="B28:D29"/>
     <mergeCell ref="E28:G29"/>
     <mergeCell ref="H30:J31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A20:Q22"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B32:D33"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B4:D4"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D5:G5"/>
@@ -4967,7 +5047,6 @@
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J4:M4"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="N1:P1"/>
@@ -4975,6 +5054,8 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q36:U37"/>
     <mergeCell ref="Q26:U27"/>
     <mergeCell ref="K42:O43"/>
@@ -4989,27 +5070,12 @@
     <mergeCell ref="E40:J41"/>
     <mergeCell ref="K30:P31"/>
     <mergeCell ref="H26:J27"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="R28:U29"/>
     <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
     <mergeCell ref="K24:P25"/>
-    <mergeCell ref="A20:Q22"/>
     <mergeCell ref="K28:P29"/>
-    <mergeCell ref="B24:D25"/>
     <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B32:D33"/>
     <mergeCell ref="E32:G33"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
     <mergeCell ref="B160:G161"/>
     <mergeCell ref="B87:O109"/>
     <mergeCell ref="B111:J111"/>
@@ -5034,6 +5100,15 @@
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B48:D49"/>
     <mergeCell ref="E48:J49"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K36:P37" xr:uid="{99C4485F-6818-4D5E-BAE9-AF169F6FC5D2}">
@@ -5335,108 +5410,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539CAB75-D52D-41EB-9357-90B57FB01A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24D0D4A-6F5A-4461-9949-4551DF195D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31575" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">ЗИП!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Отчет!$A$1:$P$161</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateDelta="252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1240,7 +1251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1270,12 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1300,9 +1305,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,8 +1323,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1351,6 +1384,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,15 +1576,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,6 +1720,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1720,28 +1765,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1760,9 +1784,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1800,9 +1824,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1835,9 +1859,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,9 +1911,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2048,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99BE51F-D7DB-4CFD-9A10-5B56BAE54DA0}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,806 +2125,806 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="109" t="str">
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="115" t="str">
         <f>REPT(M5,1)</f>
         <v/>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="101" t="s">
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="101"/>
-      <c r="N1" s="109" t="str">
+      <c r="M1" s="110"/>
+      <c r="N1" s="115" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="J4" s="110" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="J4" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
-      <c r="J5" s="30" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="J5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="108"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="114"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="J6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="106" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="114"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
-      <c r="J7" s="30" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="J7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="106" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="108"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="114"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="J8" s="103" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="J8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="J9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="114"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="J9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="108"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="J10" s="30" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="J10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="106" t="s">
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="108"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="J11" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="J11" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="161"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="81" t="s">
+      <c r="K11" s="173"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="J12" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="J12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="158"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="156"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="168"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="J13" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="J13" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="161"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="154" t="s">
+      <c r="K13" s="173"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="156"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="168"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="J14" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="J14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="J15" s="135" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="J15" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="137"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="137"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77" t="s">
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="95" t="s">
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="106"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="100"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="93" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="78" t="s">
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="81" t="s">
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="87" t="s">
+      <c r="I28" s="91"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="89"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="132"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="101"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="78" t="s">
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="89"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="78" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
     </row>
     <row r="35" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="132"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
     </row>
     <row r="36" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="78" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
     </row>
     <row r="37" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="132"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="86"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="36" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="36" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="46"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2875,15 +2933,15 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2892,19 +2950,19 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="122" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="124"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="130"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2913,15 +2971,15 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="127"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2930,93 +2988,93 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="36" t="s">
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="145" t="s">
+      <c r="B50" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="147" t="s">
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="42"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3025,15 +3083,15 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3043,274 +3101,274 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:16" ht="31.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="139" t="s">
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="K55" s="140"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="140"/>
-      <c r="N55" s="140"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="141"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
+      <c r="M55" s="146"/>
+      <c r="N55" s="146"/>
+      <c r="O55" s="146"/>
+      <c r="P55" s="147"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="144"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="149"/>
+      <c r="L56" s="149"/>
+      <c r="M56" s="149"/>
+      <c r="N56" s="149"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="150"/>
     </row>
     <row r="57" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="144"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="149"/>
+      <c r="L57" s="149"/>
+      <c r="M57" s="149"/>
+      <c r="N57" s="149"/>
+      <c r="O57" s="149"/>
+      <c r="P57" s="150"/>
     </row>
     <row r="58" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143"/>
-      <c r="M58" s="143"/>
-      <c r="N58" s="143"/>
-      <c r="O58" s="143"/>
-      <c r="P58" s="144"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="150"/>
     </row>
     <row r="59" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="144"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="149"/>
+      <c r="M59" s="149"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="149"/>
+      <c r="P59" s="150"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="144"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="149"/>
+      <c r="O60" s="149"/>
+      <c r="P60" s="150"/>
     </row>
     <row r="61" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="143"/>
-      <c r="L61" s="143"/>
-      <c r="M61" s="143"/>
-      <c r="N61" s="143"/>
-      <c r="O61" s="143"/>
-      <c r="P61" s="144"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
+      <c r="M61" s="149"/>
+      <c r="N61" s="149"/>
+      <c r="O61" s="149"/>
+      <c r="P61" s="150"/>
     </row>
     <row r="62" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="66"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="143"/>
-      <c r="L62" s="143"/>
-      <c r="M62" s="143"/>
-      <c r="N62" s="143"/>
-      <c r="O62" s="143"/>
-      <c r="P62" s="144"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="149"/>
+      <c r="N62" s="149"/>
+      <c r="O62" s="149"/>
+      <c r="P62" s="150"/>
     </row>
     <row r="63" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="143"/>
-      <c r="L63" s="143"/>
-      <c r="M63" s="143"/>
-      <c r="N63" s="143"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="144"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="149"/>
+      <c r="M63" s="149"/>
+      <c r="N63" s="149"/>
+      <c r="O63" s="149"/>
+      <c r="P63" s="150"/>
     </row>
     <row r="64" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="66"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="142"/>
-      <c r="K64" s="143"/>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143"/>
-      <c r="O64" s="143"/>
-      <c r="P64" s="144"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="149"/>
+      <c r="O64" s="149"/>
+      <c r="P64" s="150"/>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="69"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="151"/>
-      <c r="K65" s="152"/>
-      <c r="L65" s="152"/>
-      <c r="M65" s="152"/>
-      <c r="N65" s="152"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="153"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="158"/>
+      <c r="L65" s="158"/>
+      <c r="M65" s="158"/>
+      <c r="N65" s="158"/>
+      <c r="O65" s="158"/>
+      <c r="P65" s="159"/>
     </row>
     <row r="66" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K66" s="24" t="s">
+      <c r="K66" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
       <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="170"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="165"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
       <c r="P67" s="7"/>
     </row>
     <row r="68" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="77" t="s">
+      <c r="B68" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="170"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="170"/>
-      <c r="I68" s="170"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="165"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
       <c r="P68" s="7"/>
     </row>
     <row r="69" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="170"/>
-      <c r="F69" s="170"/>
-      <c r="G69" s="170"/>
-      <c r="H69" s="170"/>
-      <c r="I69" s="170"/>
+      <c r="C69" s="161"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="164"/>
+      <c r="G69" s="164"/>
+      <c r="H69" s="164"/>
+      <c r="I69" s="165"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
       <c r="P69" s="7"/>
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="170"/>
-      <c r="F70" s="170"/>
-      <c r="G70" s="170"/>
-      <c r="H70" s="170"/>
-      <c r="I70" s="170"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="162"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="164"/>
+      <c r="G70" s="164"/>
+      <c r="H70" s="164"/>
+      <c r="I70" s="165"/>
       <c r="J70" s="10"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
@@ -3321,16 +3379,16 @@
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="170"/>
-      <c r="F71" s="170"/>
-      <c r="G71" s="170"/>
-      <c r="H71" s="170"/>
-      <c r="I71" s="170"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="162"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="164"/>
+      <c r="H71" s="164"/>
+      <c r="I71" s="165"/>
       <c r="J71" s="10"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
@@ -3341,16 +3399,16 @@
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="170"/>
-      <c r="F72" s="170"/>
-      <c r="G72" s="170"/>
-      <c r="H72" s="170"/>
-      <c r="I72" s="170"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="164"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="165"/>
       <c r="J72" s="10"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -3379,61 +3437,61 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="62"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="52"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="61"/>
     </row>
     <row r="76" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="112"/>
-      <c r="J76" s="113"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="52"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="119"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="61"/>
     </row>
     <row r="77" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
@@ -3455,14 +3513,14 @@
     </row>
     <row r="78" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -3528,495 +3586,495 @@
       <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="117"/>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="117"/>
-      <c r="K82" s="117"/>
-      <c r="L82" s="117"/>
-      <c r="M82" s="128" t="str">
+      <c r="C82" s="123"/>
+      <c r="D82" s="123"/>
+      <c r="E82" s="123"/>
+      <c r="F82" s="123"/>
+      <c r="G82" s="123"/>
+      <c r="H82" s="123"/>
+      <c r="I82" s="123"/>
+      <c r="J82" s="123"/>
+      <c r="K82" s="123"/>
+      <c r="L82" s="123"/>
+      <c r="M82" s="134" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="N82" s="128"/>
-      <c r="O82" s="128"/>
-      <c r="P82" s="128"/>
+      <c r="N82" s="134"/>
+      <c r="O82" s="134"/>
+      <c r="P82" s="134"/>
     </row>
     <row r="83" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="117"/>
-      <c r="K83" s="117"/>
-      <c r="L83" s="117"/>
-      <c r="M83" s="128"/>
-      <c r="N83" s="128"/>
-      <c r="O83" s="128"/>
-      <c r="P83" s="128"/>
+      <c r="B83" s="123"/>
+      <c r="C83" s="123"/>
+      <c r="D83" s="123"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="123"/>
+      <c r="H83" s="123"/>
+      <c r="I83" s="123"/>
+      <c r="J83" s="123"/>
+      <c r="K83" s="123"/>
+      <c r="L83" s="123"/>
+      <c r="M83" s="134"/>
+      <c r="N83" s="134"/>
+      <c r="O83" s="134"/>
+      <c r="P83" s="134"/>
     </row>
     <row r="84" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="117"/>
-      <c r="I84" s="117"/>
-      <c r="J84" s="117"/>
-      <c r="K84" s="117"/>
-      <c r="L84" s="117"/>
-      <c r="M84" s="128"/>
-      <c r="N84" s="128"/>
-      <c r="O84" s="128"/>
-      <c r="P84" s="128"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
+      <c r="G84" s="123"/>
+      <c r="H84" s="123"/>
+      <c r="I84" s="123"/>
+      <c r="J84" s="123"/>
+      <c r="K84" s="123"/>
+      <c r="L84" s="123"/>
+      <c r="M84" s="134"/>
+      <c r="N84" s="134"/>
+      <c r="O84" s="134"/>
+      <c r="P84" s="134"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="117"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="117"/>
-      <c r="I85" s="117"/>
-      <c r="J85" s="117"/>
-      <c r="K85" s="117"/>
-      <c r="L85" s="117"/>
-      <c r="M85" s="128"/>
-      <c r="N85" s="128"/>
-      <c r="O85" s="128"/>
-      <c r="P85" s="128"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="123"/>
+      <c r="H85" s="123"/>
+      <c r="I85" s="123"/>
+      <c r="J85" s="123"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="123"/>
+      <c r="M85" s="134"/>
+      <c r="N85" s="134"/>
+      <c r="O85" s="134"/>
+      <c r="P85" s="134"/>
     </row>
     <row r="86" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="150" t="s">
+      <c r="B86" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="150"/>
-      <c r="D86" s="150"/>
-      <c r="E86" s="150"/>
-      <c r="F86" s="150"/>
-      <c r="G86" s="150"/>
-      <c r="H86" s="150"/>
-      <c r="I86" s="150"/>
-      <c r="J86" s="150"/>
-      <c r="K86" s="150"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="156"/>
+      <c r="F86" s="156"/>
+      <c r="G86" s="156"/>
+      <c r="H86" s="156"/>
+      <c r="I86" s="156"/>
+      <c r="J86" s="156"/>
+      <c r="K86" s="156"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="32"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="32"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="32"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="33"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="41"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="41"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="32"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="32"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="33"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="41"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="32"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33"/>
-      <c r="O96" s="33"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="32"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="33"/>
-      <c r="N97" s="33"/>
-      <c r="O97" s="33"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="32"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="33"/>
-      <c r="N98" s="33"/>
-      <c r="O98" s="33"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="32"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="32"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33"/>
-      <c r="O100" s="33"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="32"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="33"/>
-      <c r="N101" s="33"/>
-      <c r="O101" s="33"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="32"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="33"/>
-      <c r="O102" s="33"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
       <c r="P102"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="32"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="33"/>
-      <c r="O103" s="33"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="41"/>
       <c r="P103"/>
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="32"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
-      <c r="M104" s="33"/>
-      <c r="N104" s="33"/>
-      <c r="O104" s="33"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="32"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="41"/>
+      <c r="N105" s="41"/>
+      <c r="O105" s="41"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="32"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="33"/>
-      <c r="O106" s="33"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="41"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="41"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="32"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="33"/>
-      <c r="N107" s="33"/>
-      <c r="O107" s="33"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="33"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="41"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33"/>
-      <c r="O109" s="33"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="41"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
@@ -4039,17 +4097,17 @@
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -4059,416 +4117,416 @@
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="32"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="33"/>
-      <c r="L112" s="33"/>
-      <c r="M112" s="33"/>
-      <c r="N112" s="33"/>
-      <c r="O112" s="33"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="41"/>
+      <c r="O112" s="41"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="32"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33"/>
-      <c r="O113" s="33"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+      <c r="L113" s="41"/>
+      <c r="M113" s="41"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="32"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="33"/>
-      <c r="N114" s="33"/>
-      <c r="O114" s="33"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="33"/>
-      <c r="L115" s="33"/>
-      <c r="M115" s="33"/>
-      <c r="N115" s="33"/>
-      <c r="O115" s="33"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="41"/>
+      <c r="M115" s="41"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="41"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="32"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="33"/>
-      <c r="N116" s="33"/>
-      <c r="O116" s="33"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="41"/>
+      <c r="N116" s="41"/>
+      <c r="O116" s="41"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="32"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="33"/>
-      <c r="L117" s="33"/>
-      <c r="M117" s="33"/>
-      <c r="N117" s="33"/>
-      <c r="O117" s="33"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="41"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="32"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="32"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="33"/>
-      <c r="M119" s="33"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="33"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="32"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="33"/>
-      <c r="L120" s="33"/>
-      <c r="M120" s="33"/>
-      <c r="N120" s="33"/>
-      <c r="O120" s="33"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="41"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="32"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="33"/>
-      <c r="L121" s="33"/>
-      <c r="M121" s="33"/>
-      <c r="N121" s="33"/>
-      <c r="O121" s="33"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="32"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="33"/>
-      <c r="K122" s="33"/>
-      <c r="L122" s="33"/>
-      <c r="M122" s="33"/>
-      <c r="N122" s="33"/>
-      <c r="O122" s="33"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="32"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33"/>
-      <c r="K123" s="33"/>
-      <c r="L123" s="33"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33"/>
-      <c r="O123" s="33"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="32"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="33"/>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="33"/>
-      <c r="O124" s="33"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="32"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
-      <c r="K125" s="33"/>
-      <c r="L125" s="33"/>
-      <c r="M125" s="33"/>
-      <c r="N125" s="33"/>
-      <c r="O125" s="33"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="32"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="33"/>
-      <c r="K126" s="33"/>
-      <c r="L126" s="33"/>
-      <c r="M126" s="33"/>
-      <c r="N126" s="33"/>
-      <c r="O126" s="33"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="32"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="33"/>
-      <c r="M127" s="33"/>
-      <c r="N127" s="33"/>
-      <c r="O127" s="33"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="41"/>
+      <c r="M127" s="41"/>
+      <c r="N127" s="41"/>
+      <c r="O127" s="41"/>
       <c r="P127"/>
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="32"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="33"/>
-      <c r="L128" s="33"/>
-      <c r="M128" s="33"/>
-      <c r="N128" s="33"/>
-      <c r="O128" s="33"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
       <c r="P128"/>
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="32"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33"/>
-      <c r="M129" s="33"/>
-      <c r="N129" s="33"/>
-      <c r="O129" s="33"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="32"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="33"/>
-      <c r="M130" s="33"/>
-      <c r="N130" s="33"/>
-      <c r="O130" s="33"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="32"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="33"/>
-      <c r="L131" s="33"/>
-      <c r="M131" s="33"/>
-      <c r="N131" s="33"/>
-      <c r="O131" s="33"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="41"/>
+      <c r="N131" s="41"/>
+      <c r="O131" s="41"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="32"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="33"/>
-      <c r="M132" s="33"/>
-      <c r="N132" s="33"/>
-      <c r="O132" s="33"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
+      <c r="L132" s="41"/>
+      <c r="M132" s="41"/>
+      <c r="N132" s="41"/>
+      <c r="O132" s="41"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="32"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="33"/>
-      <c r="L133" s="33"/>
-      <c r="M133" s="33"/>
-      <c r="N133" s="33"/>
-      <c r="O133" s="33"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="41"/>
+      <c r="M133" s="41"/>
+      <c r="N133" s="41"/>
+      <c r="O133" s="41"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="32"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="33"/>
-      <c r="J134" s="33"/>
-      <c r="K134" s="33"/>
-      <c r="L134" s="33"/>
-      <c r="M134" s="33"/>
-      <c r="N134" s="33"/>
-      <c r="O134" s="33"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="41"/>
+      <c r="N134" s="41"/>
+      <c r="O134" s="41"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
@@ -4491,17 +4549,17 @@
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
@@ -4511,428 +4569,428 @@
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="32"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
-      <c r="N137" s="33"/>
-      <c r="O137" s="33"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="41"/>
+      <c r="N137" s="41"/>
+      <c r="O137" s="41"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="32"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="33"/>
-      <c r="K138" s="33"/>
-      <c r="L138" s="33"/>
-      <c r="M138" s="33"/>
-      <c r="N138" s="33"/>
-      <c r="O138" s="33"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
+      <c r="L138" s="41"/>
+      <c r="M138" s="41"/>
+      <c r="N138" s="41"/>
+      <c r="O138" s="41"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="32"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="33"/>
-      <c r="J139" s="33"/>
-      <c r="K139" s="33"/>
-      <c r="L139" s="33"/>
-      <c r="M139" s="33"/>
-      <c r="N139" s="33"/>
-      <c r="O139" s="33"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="41"/>
+      <c r="M139" s="41"/>
+      <c r="N139" s="41"/>
+      <c r="O139" s="41"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="32"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
-      <c r="K140" s="33"/>
-      <c r="L140" s="33"/>
-      <c r="M140" s="33"/>
-      <c r="N140" s="33"/>
-      <c r="O140" s="33"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
+      <c r="L140" s="41"/>
+      <c r="M140" s="41"/>
+      <c r="N140" s="41"/>
+      <c r="O140" s="41"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="32"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33"/>
-      <c r="K141" s="33"/>
-      <c r="L141" s="33"/>
-      <c r="M141" s="33"/>
-      <c r="N141" s="33"/>
-      <c r="O141" s="33"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
+      <c r="L141" s="41"/>
+      <c r="M141" s="41"/>
+      <c r="N141" s="41"/>
+      <c r="O141" s="41"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="32"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="33"/>
-      <c r="K142" s="33"/>
-      <c r="L142" s="33"/>
-      <c r="M142" s="33"/>
-      <c r="N142" s="33"/>
-      <c r="O142" s="33"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
+      <c r="L142" s="41"/>
+      <c r="M142" s="41"/>
+      <c r="N142" s="41"/>
+      <c r="O142" s="41"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="32"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="33"/>
-      <c r="J143" s="33"/>
-      <c r="K143" s="33"/>
-      <c r="L143" s="33"/>
-      <c r="M143" s="33"/>
-      <c r="N143" s="33"/>
-      <c r="O143" s="33"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="41"/>
+      <c r="L143" s="41"/>
+      <c r="M143" s="41"/>
+      <c r="N143" s="41"/>
+      <c r="O143" s="41"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="32"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="33"/>
-      <c r="L144" s="33"/>
-      <c r="M144" s="33"/>
-      <c r="N144" s="33"/>
-      <c r="O144" s="33"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
+      <c r="L144" s="41"/>
+      <c r="M144" s="41"/>
+      <c r="N144" s="41"/>
+      <c r="O144" s="41"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="32"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
-      <c r="I145" s="33"/>
-      <c r="J145" s="33"/>
-      <c r="K145" s="33"/>
-      <c r="L145" s="33"/>
-      <c r="M145" s="33"/>
-      <c r="N145" s="33"/>
-      <c r="O145" s="33"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="41"/>
+      <c r="M145" s="41"/>
+      <c r="N145" s="41"/>
+      <c r="O145" s="41"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="32"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33"/>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33"/>
-      <c r="O146" s="33"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="41"/>
+      <c r="L146" s="41"/>
+      <c r="M146" s="41"/>
+      <c r="N146" s="41"/>
+      <c r="O146" s="41"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="32"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="33"/>
-      <c r="K147" s="33"/>
-      <c r="L147" s="33"/>
-      <c r="M147" s="33"/>
-      <c r="N147" s="33"/>
-      <c r="O147" s="33"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="41"/>
+      <c r="L147" s="41"/>
+      <c r="M147" s="41"/>
+      <c r="N147" s="41"/>
+      <c r="O147" s="41"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="32"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="33"/>
-      <c r="K148" s="33"/>
-      <c r="L148" s="33"/>
-      <c r="M148" s="33"/>
-      <c r="N148" s="33"/>
-      <c r="O148" s="33"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
+      <c r="L148" s="41"/>
+      <c r="M148" s="41"/>
+      <c r="N148" s="41"/>
+      <c r="O148" s="41"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="32"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="33"/>
-      <c r="K149" s="33"/>
-      <c r="L149" s="33"/>
-      <c r="M149" s="33"/>
-      <c r="N149" s="33"/>
-      <c r="O149" s="33"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
+      <c r="L149" s="41"/>
+      <c r="M149" s="41"/>
+      <c r="N149" s="41"/>
+      <c r="O149" s="41"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="32"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="33"/>
-      <c r="K150" s="33"/>
-      <c r="L150" s="33"/>
-      <c r="M150" s="33"/>
-      <c r="N150" s="33"/>
-      <c r="O150" s="33"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="41"/>
+      <c r="M150" s="41"/>
+      <c r="N150" s="41"/>
+      <c r="O150" s="41"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="32"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33"/>
-      <c r="J151" s="33"/>
-      <c r="K151" s="33"/>
-      <c r="L151" s="33"/>
-      <c r="M151" s="33"/>
-      <c r="N151" s="33"/>
-      <c r="O151" s="33"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="41"/>
+      <c r="F151" s="41"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
+      <c r="L151" s="41"/>
+      <c r="M151" s="41"/>
+      <c r="N151" s="41"/>
+      <c r="O151" s="41"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="32"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="33"/>
-      <c r="L152" s="33"/>
-      <c r="M152" s="33"/>
-      <c r="N152" s="33"/>
-      <c r="O152" s="33"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+      <c r="K152" s="41"/>
+      <c r="L152" s="41"/>
+      <c r="M152" s="41"/>
+      <c r="N152" s="41"/>
+      <c r="O152" s="41"/>
       <c r="P152"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="33"/>
-      <c r="L153" s="33"/>
-      <c r="M153" s="33"/>
-      <c r="N153" s="33"/>
-      <c r="O153" s="33"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B154" s="32"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="33"/>
-      <c r="K154" s="33"/>
-      <c r="L154" s="33"/>
-      <c r="M154" s="33"/>
-      <c r="N154" s="33"/>
-      <c r="O154" s="33"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="41"/>
+      <c r="L154" s="41"/>
+      <c r="M154" s="41"/>
+      <c r="N154" s="41"/>
+      <c r="O154" s="41"/>
       <c r="P154"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B155" s="32"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="33"/>
-      <c r="K155" s="33"/>
-      <c r="L155" s="33"/>
-      <c r="M155" s="33"/>
-      <c r="N155" s="33"/>
-      <c r="O155" s="33"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="41"/>
+      <c r="L155" s="41"/>
+      <c r="M155" s="41"/>
+      <c r="N155" s="41"/>
+      <c r="O155" s="41"/>
       <c r="P155"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B156" s="32"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="33"/>
-      <c r="K156" s="33"/>
-      <c r="L156" s="33"/>
-      <c r="M156" s="33"/>
-      <c r="N156" s="33"/>
-      <c r="O156" s="33"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
+      <c r="L156" s="41"/>
+      <c r="M156" s="41"/>
+      <c r="N156" s="41"/>
+      <c r="O156" s="41"/>
       <c r="P156"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B157" s="32"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="33"/>
-      <c r="K157" s="33"/>
-      <c r="L157" s="33"/>
-      <c r="M157" s="33"/>
-      <c r="N157" s="33"/>
-      <c r="O157" s="33"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="41"/>
+      <c r="M157" s="41"/>
+      <c r="N157" s="41"/>
+      <c r="O157" s="41"/>
       <c r="P157"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B158" s="32"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="33"/>
-      <c r="K158" s="33"/>
-      <c r="L158" s="33"/>
-      <c r="M158" s="33"/>
-      <c r="N158" s="33"/>
-      <c r="O158" s="33"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="41"/>
+      <c r="N158" s="41"/>
+      <c r="O158" s="41"/>
       <c r="P158"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B159" s="32"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="33"/>
-      <c r="L159" s="33"/>
-      <c r="M159" s="33"/>
-      <c r="N159" s="33"/>
-      <c r="O159" s="33"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="41"/>
+      <c r="F159" s="41"/>
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+      <c r="K159" s="41"/>
+      <c r="L159" s="41"/>
+      <c r="M159" s="41"/>
+      <c r="N159" s="41"/>
+      <c r="O159" s="41"/>
       <c r="P159"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="31"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39"/>
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160"/>
@@ -4945,22 +5003,22 @@
       <c r="Q160"/>
     </row>
     <row r="161" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L161" s="138"/>
-      <c r="M161" s="138"/>
-      <c r="N161" s="138"/>
-      <c r="O161" s="138"/>
+      <c r="L161" s="144"/>
+      <c r="M161" s="144"/>
+      <c r="N161" s="144"/>
+      <c r="O161" s="144"/>
       <c r="P161"/>
       <c r="Q161" s="6"/>
     </row>
@@ -4989,8 +5047,6 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="M10:P10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="L161:O161"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J56:P56"/>
@@ -5038,6 +5094,7 @@
     <mergeCell ref="A20:Q22"/>
     <mergeCell ref="B24:D25"/>
     <mergeCell ref="B32:D33"/>
+    <mergeCell ref="Q36:U37"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="D7:G7"/>
@@ -5056,7 +5113,7 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q36:U37"/>
+    <mergeCell ref="E48:J49"/>
     <mergeCell ref="Q26:U27"/>
     <mergeCell ref="K42:O43"/>
     <mergeCell ref="H24:J25"/>
@@ -5076,6 +5133,7 @@
     <mergeCell ref="K28:P29"/>
     <mergeCell ref="E24:G25"/>
     <mergeCell ref="E32:G33"/>
+    <mergeCell ref="B10:G10"/>
     <mergeCell ref="B160:G161"/>
     <mergeCell ref="B87:O109"/>
     <mergeCell ref="B111:J111"/>
@@ -5099,12 +5157,12 @@
     <mergeCell ref="B44:D45"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B48:D49"/>
-    <mergeCell ref="E48:J49"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -5410,108 +5468,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24D0D4A-6F5A-4461-9949-4551DF195D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A1053-23B9-4DCE-AC10-DC2BF142A436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t xml:space="preserve">Акт (расширенный отчет) о проведении диагностики клапана  </t>
   </si>
@@ -538,24 +538,6 @@
   <si>
     <t>Усилие отрыва прямой/обратный ход (N)</t>
   </si>
-  <si>
-    <t>Результат циклического теста</t>
-  </si>
-  <si>
-    <t>Время прямого хода, сек</t>
-  </si>
-  <si>
-    <t>Время обратного хода, сек</t>
-  </si>
-  <si>
-    <t>Количество выполненных циклов</t>
-  </si>
-  <si>
-    <t>Диапозон выполнения теста, %</t>
-  </si>
-  <si>
-    <t>Общее время теста, сек</t>
-  </si>
 </sst>
 </file>
 
@@ -564,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +774,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1323,13 +1313,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,6 +1323,249 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,45 +1575,72 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,286 +1740,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1784,9 +1772,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1824,9 +1812,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1859,26 +1847,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1911,26 +1882,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2106,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99BE51F-D7DB-4CFD-9A10-5B56BAE54DA0}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36:U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,65 +2125,65 @@
       <c r="P4" s="116"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="114"/>
       <c r="J5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="114"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
       <c r="J6" s="48" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="112" t="s">
+      <c r="M6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="114"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
       <c r="J7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
-      <c r="M7" s="112" t="s">
+      <c r="M7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="114"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
@@ -2238,15 +2192,15 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
@@ -2260,130 +2214,118 @@
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="114"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
       <c r="J10" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
-      <c r="M10" s="112" t="s">
+      <c r="M10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="114"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="J11" s="172" t="s">
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="J11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="173"/>
-      <c r="L11" s="174"/>
-      <c r="M11" s="90" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="J12" s="169" t="s">
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="J12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="170"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="168"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="J13" s="172" t="s">
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="J13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="173"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="166" t="s">
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="168"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="J14" s="47" t="s">
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="J14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="J15" s="141" t="s">
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="J15" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
@@ -2392,13 +2334,13 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
@@ -2407,13 +2349,13 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
@@ -2422,13 +2364,13 @@
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
@@ -2439,318 +2381,318 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86" t="s">
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86" t="s">
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="104" t="s">
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="106"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="132"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="102" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="87" t="s">
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="90" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="96" t="s">
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="124"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="101"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="87" t="s">
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="89"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="121"/>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
       <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="89"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
       <c r="R31" s="23"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
       <c r="U31" s="23"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="87" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="83"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="98"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="124"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -2758,21 +2700,21 @@
       <c r="U34" s="25"/>
     </row>
     <row r="35" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="138"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="101"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="127"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
@@ -2785,47 +2727,47 @@
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="87" t="s">
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
-      <c r="U36" s="83"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
     </row>
     <row r="37" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="109"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="109"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="48" t="s">
@@ -2833,47 +2775,47 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="136"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="95"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="48" t="s">
@@ -2881,50 +2823,50 @@
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="118"/>
+      <c r="N42" s="118"/>
+      <c r="O42" s="118"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="118"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="44" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="46"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="64"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2933,15 +2875,15 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2950,19 +2892,19 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="40" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="128" t="s">
+      <c r="E46" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="130"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="90"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2974,12 +2916,12 @@
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="93"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2993,88 +2935,88 @@
       </c>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="154"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="154"/>
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="153" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="51"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="139"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3083,15 +3025,15 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="142"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3101,219 +3043,219 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:16" ht="31.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="145" t="s">
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="146"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="146"/>
-      <c r="P55" s="147"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="58"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="149"/>
-      <c r="L56" s="149"/>
-      <c r="M56" s="149"/>
-      <c r="N56" s="149"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="150"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="61"/>
     </row>
     <row r="57" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="75"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="148"/>
-      <c r="K57" s="149"/>
-      <c r="L57" s="149"/>
-      <c r="M57" s="149"/>
-      <c r="N57" s="149"/>
-      <c r="O57" s="149"/>
-      <c r="P57" s="150"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="61"/>
     </row>
     <row r="58" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="148"/>
-      <c r="K58" s="149"/>
-      <c r="L58" s="149"/>
-      <c r="M58" s="149"/>
-      <c r="N58" s="149"/>
-      <c r="O58" s="149"/>
-      <c r="P58" s="150"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="61"/>
     </row>
     <row r="59" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="75"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="148"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="149"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="149"/>
-      <c r="P59" s="150"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="61"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="149"/>
-      <c r="L60" s="149"/>
-      <c r="M60" s="149"/>
-      <c r="N60" s="149"/>
-      <c r="O60" s="149"/>
-      <c r="P60" s="150"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="61"/>
     </row>
     <row r="61" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="75"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="149"/>
-      <c r="M61" s="149"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="149"/>
-      <c r="P61" s="150"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="61"/>
     </row>
     <row r="62" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="149"/>
-      <c r="N62" s="149"/>
-      <c r="O62" s="149"/>
-      <c r="P62" s="150"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="61"/>
     </row>
     <row r="63" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="75"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="149"/>
-      <c r="M63" s="149"/>
-      <c r="N63" s="149"/>
-      <c r="O63" s="149"/>
-      <c r="P63" s="150"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="61"/>
     </row>
     <row r="64" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="149"/>
-      <c r="M64" s="149"/>
-      <c r="N64" s="149"/>
-      <c r="O64" s="149"/>
-      <c r="P64" s="150"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="61"/>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="78"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="158"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="158"/>
-      <c r="P65" s="159"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="167"/>
+      <c r="I65" s="168"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="73"/>
     </row>
     <row r="66" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K66" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
+      <c r="L66" s="143"/>
+      <c r="M66" s="143"/>
+      <c r="N66" s="143"/>
+      <c r="O66" s="143"/>
       <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="160" t="s">
+      <c r="B67" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="161"/>
-      <c r="D67" s="162"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="164"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="164"/>
-      <c r="I67" s="165"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
       <c r="K67" s="8"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
@@ -3322,16 +3264,16 @@
       <c r="P67" s="7"/>
     </row>
     <row r="68" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="161"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="163"/>
-      <c r="F68" s="164"/>
-      <c r="G68" s="164"/>
-      <c r="H68" s="164"/>
-      <c r="I68" s="165"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="39"/>
       <c r="K68" s="8"/>
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
@@ -3340,16 +3282,16 @@
       <c r="P68" s="7"/>
     </row>
     <row r="69" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="160" t="s">
+      <c r="B69" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="161"/>
-      <c r="D69" s="162"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="164"/>
-      <c r="G69" s="164"/>
-      <c r="H69" s="164"/>
-      <c r="I69" s="165"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="39"/>
       <c r="K69" s="8"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
@@ -3359,16 +3301,16 @@
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
-      <c r="B70" s="160" t="s">
+      <c r="B70" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="161"/>
-      <c r="D70" s="162"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="164"/>
-      <c r="G70" s="164"/>
-      <c r="H70" s="164"/>
-      <c r="I70" s="165"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="39"/>
       <c r="J70" s="10"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
@@ -3379,16 +3321,16 @@
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="161"/>
-      <c r="D71" s="162"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="164"/>
-      <c r="G71" s="164"/>
-      <c r="H71" s="164"/>
-      <c r="I71" s="165"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
       <c r="J71" s="10"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
@@ -3399,16 +3341,16 @@
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
-      <c r="B72" s="160" t="s">
+      <c r="B72" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="161"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="164"/>
-      <c r="G72" s="164"/>
-      <c r="H72" s="164"/>
-      <c r="I72" s="165"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="39"/>
       <c r="J72" s="10"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -3437,61 +3379,61 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
-      <c r="P74" s="62"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="149"/>
+      <c r="L74" s="150"/>
+      <c r="M74" s="150"/>
+      <c r="N74" s="150"/>
+      <c r="O74" s="150"/>
+      <c r="P74" s="150"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="61"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="147"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="151"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="152"/>
+      <c r="O75" s="152"/>
+      <c r="P75" s="149"/>
     </row>
     <row r="76" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="119"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
-      <c r="O76" s="64"/>
-      <c r="P76" s="61"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="151"/>
+      <c r="L76" s="152"/>
+      <c r="M76" s="152"/>
+      <c r="N76" s="152"/>
+      <c r="O76" s="152"/>
+      <c r="P76" s="149"/>
     </row>
     <row r="77" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
@@ -3513,14 +3455,14 @@
     </row>
     <row r="78" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="169"/>
+      <c r="G78" s="169"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -3586,495 +3528,495 @@
       <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="123" t="s">
+      <c r="B82" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="123"/>
-      <c r="J82" s="123"/>
-      <c r="K82" s="123"/>
-      <c r="L82" s="123"/>
-      <c r="M82" s="134" t="str">
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="83"/>
+      <c r="L82" s="83"/>
+      <c r="M82" s="94" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="N82" s="134"/>
-      <c r="O82" s="134"/>
-      <c r="P82" s="134"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
+      <c r="P82" s="94"/>
     </row>
     <row r="83" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="123"/>
-      <c r="K83" s="123"/>
-      <c r="L83" s="123"/>
-      <c r="M83" s="134"/>
-      <c r="N83" s="134"/>
-      <c r="O83" s="134"/>
-      <c r="P83" s="134"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83"/>
+      <c r="K83" s="83"/>
+      <c r="L83" s="83"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
+      <c r="P83" s="94"/>
     </row>
     <row r="84" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="123"/>
-      <c r="I84" s="123"/>
-      <c r="J84" s="123"/>
-      <c r="K84" s="123"/>
-      <c r="L84" s="123"/>
-      <c r="M84" s="134"/>
-      <c r="N84" s="134"/>
-      <c r="O84" s="134"/>
-      <c r="P84" s="134"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="83"/>
+      <c r="M84" s="94"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
+      <c r="P84" s="94"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
-      <c r="G85" s="123"/>
-      <c r="H85" s="123"/>
-      <c r="I85" s="123"/>
-      <c r="J85" s="123"/>
-      <c r="K85" s="123"/>
-      <c r="L85" s="123"/>
-      <c r="M85" s="134"/>
-      <c r="N85" s="134"/>
-      <c r="O85" s="134"/>
-      <c r="P85" s="134"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="83"/>
+      <c r="K85" s="83"/>
+      <c r="L85" s="83"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
+      <c r="P85" s="94"/>
     </row>
     <row r="86" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="156" t="s">
+      <c r="B86" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="156"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="156"/>
-      <c r="I86" s="156"/>
-      <c r="J86" s="156"/>
-      <c r="K86" s="156"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="70"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="40"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
+      <c r="O87" s="75"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="75"/>
+      <c r="O88" s="75"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="40"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="40"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="41"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="40"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="41"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
+      <c r="O91" s="75"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="40"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
+      <c r="O92" s="75"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="40"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="40"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="41"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="40"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="41"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="75"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="40"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="75"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="40"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="75"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="40"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="75"/>
+      <c r="O98" s="75"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="40"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
+      <c r="O99" s="75"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="40"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="41"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="75"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="40"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="75"/>
+      <c r="N101" s="75"/>
+      <c r="O101" s="75"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="40"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="75"/>
+      <c r="O102" s="75"/>
       <c r="P102"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="40"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="75"/>
+      <c r="O103" s="75"/>
       <c r="P103"/>
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="40"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="41"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="40"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
+      <c r="K105" s="75"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="75"/>
+      <c r="O105" s="75"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="40"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="41"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="75"/>
+      <c r="O106" s="75"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="40"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="75"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="75"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="75"/>
+      <c r="N107" s="75"/>
+      <c r="O107" s="75"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="40"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="75"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="75"/>
+      <c r="O108" s="75"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="40"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
+      <c r="O109" s="75"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
@@ -4097,17 +4039,17 @@
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -4117,416 +4059,416 @@
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="40"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="41"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="75"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="75"/>
+      <c r="N112" s="75"/>
+      <c r="O112" s="75"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="40"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="75"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="75"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="75"/>
+      <c r="N113" s="75"/>
+      <c r="O113" s="75"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="40"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="75"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="75"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="75"/>
+      <c r="N114" s="75"/>
+      <c r="O114" s="75"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="40"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
-      <c r="O115" s="41"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="75"/>
+      <c r="D115" s="75"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="75"/>
+      <c r="G115" s="75"/>
+      <c r="H115" s="75"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="75"/>
+      <c r="M115" s="75"/>
+      <c r="N115" s="75"/>
+      <c r="O115" s="75"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="40"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="41"/>
-      <c r="N116" s="41"/>
-      <c r="O116" s="41"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="75"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="75"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="75"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="75"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="40"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="75"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
+      <c r="O117" s="75"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="40"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="41"/>
-      <c r="O118" s="41"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="75"/>
+      <c r="G118" s="75"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+      <c r="O118" s="75"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="40"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="41"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="41"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="75"/>
+      <c r="D119" s="75"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="75"/>
+      <c r="G119" s="75"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
+      <c r="O119" s="75"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="40"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="41"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="75"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="75"/>
+      <c r="H120" s="75"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="75"/>
+      <c r="N120" s="75"/>
+      <c r="O120" s="75"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="40"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="41"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="75"/>
+      <c r="N121" s="75"/>
+      <c r="O121" s="75"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="40"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
+      <c r="K122" s="75"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="75"/>
+      <c r="N122" s="75"/>
+      <c r="O122" s="75"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="40"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="75"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="75"/>
+      <c r="K123" s="75"/>
+      <c r="L123" s="75"/>
+      <c r="M123" s="75"/>
+      <c r="N123" s="75"/>
+      <c r="O123" s="75"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="40"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="75"/>
+      <c r="D124" s="75"/>
+      <c r="E124" s="75"/>
+      <c r="F124" s="75"/>
+      <c r="G124" s="75"/>
+      <c r="H124" s="75"/>
+      <c r="I124" s="75"/>
+      <c r="J124" s="75"/>
+      <c r="K124" s="75"/>
+      <c r="L124" s="75"/>
+      <c r="M124" s="75"/>
+      <c r="N124" s="75"/>
+      <c r="O124" s="75"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="40"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="75"/>
+      <c r="G125" s="75"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
+      <c r="K125" s="75"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="75"/>
+      <c r="N125" s="75"/>
+      <c r="O125" s="75"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="40"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="75"/>
+      <c r="D126" s="75"/>
+      <c r="E126" s="75"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="75"/>
+      <c r="H126" s="75"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="75"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="75"/>
+      <c r="N126" s="75"/>
+      <c r="O126" s="75"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="40"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="41"/>
-      <c r="L127" s="41"/>
-      <c r="M127" s="41"/>
-      <c r="N127" s="41"/>
-      <c r="O127" s="41"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75"/>
+      <c r="F127" s="75"/>
+      <c r="G127" s="75"/>
+      <c r="H127" s="75"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="75"/>
+      <c r="K127" s="75"/>
+      <c r="L127" s="75"/>
+      <c r="M127" s="75"/>
+      <c r="N127" s="75"/>
+      <c r="O127" s="75"/>
       <c r="P127"/>
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="40"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="41"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="41"/>
-      <c r="O128" s="41"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="75"/>
+      <c r="E128" s="75"/>
+      <c r="F128" s="75"/>
+      <c r="G128" s="75"/>
+      <c r="H128" s="75"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="75"/>
+      <c r="K128" s="75"/>
+      <c r="L128" s="75"/>
+      <c r="M128" s="75"/>
+      <c r="N128" s="75"/>
+      <c r="O128" s="75"/>
       <c r="P128"/>
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="40"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="41"/>
-      <c r="N129" s="41"/>
-      <c r="O129" s="41"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="75"/>
+      <c r="M129" s="75"/>
+      <c r="N129" s="75"/>
+      <c r="O129" s="75"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="40"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
+      <c r="B130" s="74"/>
+      <c r="C130" s="75"/>
+      <c r="D130" s="75"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="75"/>
+      <c r="G130" s="75"/>
+      <c r="H130" s="75"/>
+      <c r="I130" s="75"/>
+      <c r="J130" s="75"/>
+      <c r="K130" s="75"/>
+      <c r="L130" s="75"/>
+      <c r="M130" s="75"/>
+      <c r="N130" s="75"/>
+      <c r="O130" s="75"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="40"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="41"/>
-      <c r="L131" s="41"/>
-      <c r="M131" s="41"/>
-      <c r="N131" s="41"/>
-      <c r="O131" s="41"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="75"/>
+      <c r="E131" s="75"/>
+      <c r="F131" s="75"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="40"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-      <c r="K132" s="41"/>
-      <c r="L132" s="41"/>
-      <c r="M132" s="41"/>
-      <c r="N132" s="41"/>
-      <c r="O132" s="41"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="75"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="40"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="41"/>
-      <c r="L133" s="41"/>
-      <c r="M133" s="41"/>
-      <c r="N133" s="41"/>
-      <c r="O133" s="41"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="40"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
-      <c r="M134" s="41"/>
-      <c r="N134" s="41"/>
-      <c r="O134" s="41"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="75"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="75"/>
+      <c r="N134" s="75"/>
+      <c r="O134" s="75"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
@@ -4549,17 +4491,17 @@
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
@@ -4569,428 +4511,428 @@
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="40"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="41"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="41"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="75"/>
+      <c r="G137" s="75"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="75"/>
+      <c r="J137" s="75"/>
+      <c r="K137" s="75"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="75"/>
+      <c r="N137" s="75"/>
+      <c r="O137" s="75"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="40"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-      <c r="K138" s="41"/>
-      <c r="L138" s="41"/>
-      <c r="M138" s="41"/>
-      <c r="N138" s="41"/>
-      <c r="O138" s="41"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="75"/>
+      <c r="D138" s="75"/>
+      <c r="E138" s="75"/>
+      <c r="F138" s="75"/>
+      <c r="G138" s="75"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="75"/>
+      <c r="J138" s="75"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="75"/>
+      <c r="M138" s="75"/>
+      <c r="N138" s="75"/>
+      <c r="O138" s="75"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="40"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-      <c r="K139" s="41"/>
-      <c r="L139" s="41"/>
-      <c r="M139" s="41"/>
-      <c r="N139" s="41"/>
-      <c r="O139" s="41"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="75"/>
+      <c r="D139" s="75"/>
+      <c r="E139" s="75"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="75"/>
+      <c r="H139" s="75"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="75"/>
+      <c r="K139" s="75"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="75"/>
+      <c r="N139" s="75"/>
+      <c r="O139" s="75"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="40"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="41"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-      <c r="K140" s="41"/>
-      <c r="L140" s="41"/>
-      <c r="M140" s="41"/>
-      <c r="N140" s="41"/>
-      <c r="O140" s="41"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="75"/>
+      <c r="D140" s="75"/>
+      <c r="E140" s="75"/>
+      <c r="F140" s="75"/>
+      <c r="G140" s="75"/>
+      <c r="H140" s="75"/>
+      <c r="I140" s="75"/>
+      <c r="J140" s="75"/>
+      <c r="K140" s="75"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="75"/>
+      <c r="N140" s="75"/>
+      <c r="O140" s="75"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="40"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="41"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="41"/>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-      <c r="K141" s="41"/>
-      <c r="L141" s="41"/>
-      <c r="M141" s="41"/>
-      <c r="N141" s="41"/>
-      <c r="O141" s="41"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="75"/>
+      <c r="E141" s="75"/>
+      <c r="F141" s="75"/>
+      <c r="G141" s="75"/>
+      <c r="H141" s="75"/>
+      <c r="I141" s="75"/>
+      <c r="J141" s="75"/>
+      <c r="K141" s="75"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="75"/>
+      <c r="N141" s="75"/>
+      <c r="O141" s="75"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="40"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-      <c r="K142" s="41"/>
-      <c r="L142" s="41"/>
-      <c r="M142" s="41"/>
-      <c r="N142" s="41"/>
-      <c r="O142" s="41"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="75"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="75"/>
+      <c r="H142" s="75"/>
+      <c r="I142" s="75"/>
+      <c r="J142" s="75"/>
+      <c r="K142" s="75"/>
+      <c r="L142" s="75"/>
+      <c r="M142" s="75"/>
+      <c r="N142" s="75"/>
+      <c r="O142" s="75"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="40"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
-      <c r="K143" s="41"/>
-      <c r="L143" s="41"/>
-      <c r="M143" s="41"/>
-      <c r="N143" s="41"/>
-      <c r="O143" s="41"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="75"/>
+      <c r="D143" s="75"/>
+      <c r="E143" s="75"/>
+      <c r="F143" s="75"/>
+      <c r="G143" s="75"/>
+      <c r="H143" s="75"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="75"/>
+      <c r="K143" s="75"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="75"/>
+      <c r="N143" s="75"/>
+      <c r="O143" s="75"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="40"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="41"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="41"/>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
-      <c r="K144" s="41"/>
-      <c r="L144" s="41"/>
-      <c r="M144" s="41"/>
-      <c r="N144" s="41"/>
-      <c r="O144" s="41"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="75"/>
+      <c r="F144" s="75"/>
+      <c r="G144" s="75"/>
+      <c r="H144" s="75"/>
+      <c r="I144" s="75"/>
+      <c r="J144" s="75"/>
+      <c r="K144" s="75"/>
+      <c r="L144" s="75"/>
+      <c r="M144" s="75"/>
+      <c r="N144" s="75"/>
+      <c r="O144" s="75"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="40"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="41"/>
-      <c r="F145" s="41"/>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
-      <c r="K145" s="41"/>
-      <c r="L145" s="41"/>
-      <c r="M145" s="41"/>
-      <c r="N145" s="41"/>
-      <c r="O145" s="41"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="75"/>
+      <c r="D145" s="75"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="75"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
+      <c r="K145" s="75"/>
+      <c r="L145" s="75"/>
+      <c r="M145" s="75"/>
+      <c r="N145" s="75"/>
+      <c r="O145" s="75"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="40"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
-      <c r="K146" s="41"/>
-      <c r="L146" s="41"/>
-      <c r="M146" s="41"/>
-      <c r="N146" s="41"/>
-      <c r="O146" s="41"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="75"/>
+      <c r="E146" s="75"/>
+      <c r="F146" s="75"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="75"/>
+      <c r="K146" s="75"/>
+      <c r="L146" s="75"/>
+      <c r="M146" s="75"/>
+      <c r="N146" s="75"/>
+      <c r="O146" s="75"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="40"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-      <c r="K147" s="41"/>
-      <c r="L147" s="41"/>
-      <c r="M147" s="41"/>
-      <c r="N147" s="41"/>
-      <c r="O147" s="41"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="75"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="75"/>
+      <c r="L147" s="75"/>
+      <c r="M147" s="75"/>
+      <c r="N147" s="75"/>
+      <c r="O147" s="75"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="40"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="41"/>
-      <c r="G148" s="41"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-      <c r="K148" s="41"/>
-      <c r="L148" s="41"/>
-      <c r="M148" s="41"/>
-      <c r="N148" s="41"/>
-      <c r="O148" s="41"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="75"/>
+      <c r="D148" s="75"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="75"/>
+      <c r="G148" s="75"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="75"/>
+      <c r="J148" s="75"/>
+      <c r="K148" s="75"/>
+      <c r="L148" s="75"/>
+      <c r="M148" s="75"/>
+      <c r="N148" s="75"/>
+      <c r="O148" s="75"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="40"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-      <c r="K149" s="41"/>
-      <c r="L149" s="41"/>
-      <c r="M149" s="41"/>
-      <c r="N149" s="41"/>
-      <c r="O149" s="41"/>
+      <c r="B149" s="74"/>
+      <c r="C149" s="75"/>
+      <c r="D149" s="75"/>
+      <c r="E149" s="75"/>
+      <c r="F149" s="75"/>
+      <c r="G149" s="75"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="75"/>
+      <c r="L149" s="75"/>
+      <c r="M149" s="75"/>
+      <c r="N149" s="75"/>
+      <c r="O149" s="75"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="40"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="41"/>
-      <c r="E150" s="41"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-      <c r="K150" s="41"/>
-      <c r="L150" s="41"/>
-      <c r="M150" s="41"/>
-      <c r="N150" s="41"/>
-      <c r="O150" s="41"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="75"/>
+      <c r="D150" s="75"/>
+      <c r="E150" s="75"/>
+      <c r="F150" s="75"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="75"/>
+      <c r="K150" s="75"/>
+      <c r="L150" s="75"/>
+      <c r="M150" s="75"/>
+      <c r="N150" s="75"/>
+      <c r="O150" s="75"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="40"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-      <c r="K151" s="41"/>
-      <c r="L151" s="41"/>
-      <c r="M151" s="41"/>
-      <c r="N151" s="41"/>
-      <c r="O151" s="41"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="75"/>
+      <c r="D151" s="75"/>
+      <c r="E151" s="75"/>
+      <c r="F151" s="75"/>
+      <c r="G151" s="75"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="75"/>
+      <c r="K151" s="75"/>
+      <c r="L151" s="75"/>
+      <c r="M151" s="75"/>
+      <c r="N151" s="75"/>
+      <c r="O151" s="75"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="40"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="41"/>
-      <c r="F152" s="41"/>
-      <c r="G152" s="41"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-      <c r="K152" s="41"/>
-      <c r="L152" s="41"/>
-      <c r="M152" s="41"/>
-      <c r="N152" s="41"/>
-      <c r="O152" s="41"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="75"/>
+      <c r="J152" s="75"/>
+      <c r="K152" s="75"/>
+      <c r="L152" s="75"/>
+      <c r="M152" s="75"/>
+      <c r="N152" s="75"/>
+      <c r="O152" s="75"/>
       <c r="P152"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B153" s="40"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-      <c r="K153" s="41"/>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
+      <c r="B153" s="74"/>
+      <c r="C153" s="75"/>
+      <c r="D153" s="75"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="75"/>
+      <c r="J153" s="75"/>
+      <c r="K153" s="75"/>
+      <c r="L153" s="75"/>
+      <c r="M153" s="75"/>
+      <c r="N153" s="75"/>
+      <c r="O153" s="75"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B154" s="40"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="41"/>
-      <c r="K154" s="41"/>
-      <c r="L154" s="41"/>
-      <c r="M154" s="41"/>
-      <c r="N154" s="41"/>
-      <c r="O154" s="41"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="75"/>
+      <c r="D154" s="75"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="75"/>
+      <c r="G154" s="75"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="75"/>
+      <c r="J154" s="75"/>
+      <c r="K154" s="75"/>
+      <c r="L154" s="75"/>
+      <c r="M154" s="75"/>
+      <c r="N154" s="75"/>
+      <c r="O154" s="75"/>
       <c r="P154"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B155" s="40"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
-      <c r="K155" s="41"/>
-      <c r="L155" s="41"/>
-      <c r="M155" s="41"/>
-      <c r="N155" s="41"/>
-      <c r="O155" s="41"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="75"/>
+      <c r="D155" s="75"/>
+      <c r="E155" s="75"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="75"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="75"/>
+      <c r="J155" s="75"/>
+      <c r="K155" s="75"/>
+      <c r="L155" s="75"/>
+      <c r="M155" s="75"/>
+      <c r="N155" s="75"/>
+      <c r="O155" s="75"/>
       <c r="P155"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B156" s="40"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="41"/>
-      <c r="G156" s="41"/>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
-      <c r="J156" s="41"/>
-      <c r="K156" s="41"/>
-      <c r="L156" s="41"/>
-      <c r="M156" s="41"/>
-      <c r="N156" s="41"/>
-      <c r="O156" s="41"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="75"/>
+      <c r="D156" s="75"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="75"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="75"/>
+      <c r="J156" s="75"/>
+      <c r="K156" s="75"/>
+      <c r="L156" s="75"/>
+      <c r="M156" s="75"/>
+      <c r="N156" s="75"/>
+      <c r="O156" s="75"/>
       <c r="P156"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B157" s="40"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="41"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="41"/>
-      <c r="G157" s="41"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
-      <c r="K157" s="41"/>
-      <c r="L157" s="41"/>
-      <c r="M157" s="41"/>
-      <c r="N157" s="41"/>
-      <c r="O157" s="41"/>
+      <c r="B157" s="74"/>
+      <c r="C157" s="75"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="75"/>
+      <c r="J157" s="75"/>
+      <c r="K157" s="75"/>
+      <c r="L157" s="75"/>
+      <c r="M157" s="75"/>
+      <c r="N157" s="75"/>
+      <c r="O157" s="75"/>
       <c r="P157"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B158" s="40"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="41"/>
-      <c r="J158" s="41"/>
-      <c r="K158" s="41"/>
-      <c r="L158" s="41"/>
-      <c r="M158" s="41"/>
-      <c r="N158" s="41"/>
-      <c r="O158" s="41"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="75"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="75"/>
       <c r="P158"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B159" s="40"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="41"/>
-      <c r="E159" s="41"/>
-      <c r="F159" s="41"/>
-      <c r="G159" s="41"/>
-      <c r="H159" s="41"/>
-      <c r="I159" s="41"/>
-      <c r="J159" s="41"/>
-      <c r="K159" s="41"/>
-      <c r="L159" s="41"/>
-      <c r="M159" s="41"/>
-      <c r="N159" s="41"/>
-      <c r="O159" s="41"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="75"/>
+      <c r="D159" s="75"/>
+      <c r="E159" s="75"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="75"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="75"/>
+      <c r="J159" s="75"/>
+      <c r="K159" s="75"/>
+      <c r="L159" s="75"/>
+      <c r="M159" s="75"/>
+      <c r="N159" s="75"/>
+      <c r="O159" s="75"/>
       <c r="P159"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
+      <c r="C160" s="136"/>
+      <c r="D160" s="136"/>
+      <c r="E160" s="136"/>
+      <c r="F160" s="136"/>
+      <c r="G160" s="136"/>
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160"/>
@@ -5003,50 +4945,112 @@
       <c r="Q160"/>
     </row>
     <row r="161" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
-      <c r="F161" s="39"/>
-      <c r="G161" s="39"/>
+      <c r="B161" s="136"/>
+      <c r="C161" s="136"/>
+      <c r="D161" s="136"/>
+      <c r="E161" s="136"/>
+      <c r="F161" s="136"/>
+      <c r="G161" s="136"/>
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L161" s="144"/>
-      <c r="M161" s="144"/>
-      <c r="N161" s="144"/>
-      <c r="O161" s="144"/>
+      <c r="L161" s="55"/>
+      <c r="M161" s="55"/>
+      <c r="N161" s="55"/>
+      <c r="O161" s="55"/>
       <c r="P161"/>
       <c r="Q161" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="142">
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
+  <mergeCells count="131">
+    <mergeCell ref="B160:G161"/>
+    <mergeCell ref="B87:O109"/>
+    <mergeCell ref="B111:J111"/>
+    <mergeCell ref="E38:J39"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="K74:P74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="K75:P75"/>
+    <mergeCell ref="K76:P76"/>
+    <mergeCell ref="K48:O49"/>
+    <mergeCell ref="K50:O51"/>
+    <mergeCell ref="H52:J53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I65"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="Q26:U27"/>
+    <mergeCell ref="K42:O43"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K26:P27"/>
+    <mergeCell ref="K32:P33"/>
+    <mergeCell ref="K36:P37"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="E34:J35"/>
+    <mergeCell ref="K34:P35"/>
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="K30:P31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="R28:U29"/>
+    <mergeCell ref="Q32:U33"/>
+    <mergeCell ref="K24:P25"/>
+    <mergeCell ref="K28:P29"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B52:D53"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B82:L85"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E46:J47"/>
+    <mergeCell ref="M82:P85"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A20:Q22"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="Q36:U37"/>
     <mergeCell ref="L161:O161"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J56:P56"/>
@@ -5071,102 +5075,29 @@
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="B136:J136"/>
     <mergeCell ref="B112:O134"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="B52:D53"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="B82:L85"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E46:J47"/>
-    <mergeCell ref="M82:P85"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A20:Q22"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="Q36:U37"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
     <mergeCell ref="E48:J49"/>
-    <mergeCell ref="Q26:U27"/>
-    <mergeCell ref="K42:O43"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K26:P27"/>
-    <mergeCell ref="K32:P33"/>
-    <mergeCell ref="K36:P37"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="E34:J35"/>
-    <mergeCell ref="K34:P35"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="K30:P31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="R28:U29"/>
-    <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="K24:P25"/>
-    <mergeCell ref="K28:P29"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B160:G161"/>
-    <mergeCell ref="B87:O109"/>
-    <mergeCell ref="B111:J111"/>
-    <mergeCell ref="E38:J39"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="K74:P74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="K75:P75"/>
-    <mergeCell ref="K76:P76"/>
-    <mergeCell ref="K48:O49"/>
-    <mergeCell ref="K50:O51"/>
-    <mergeCell ref="H52:J53"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I65"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K36:P37" xr:uid="{99C4485F-6818-4D5E-BAE9-AF169F6FC5D2}">
@@ -5565,11 +5496,11 @@
       <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
